--- a/excel_routes/route_HBE_JED_threats.xlsx
+++ b/excel_routes/route_HBE_JED_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -50,6 +50,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="00D4EDDA"/>
         <bgColor rgb="00D4EDDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8D7DA"/>
+        <bgColor rgb="00F8D7DA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF3CD"/>
+        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -71,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -80,6 +92,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,14 +475,14 @@
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="23" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -528,43 +546,898 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>12-JAN-26</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>SM-457</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-323</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>8766</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>8052</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>714</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
           <t>26-JAN-26</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>SM-451</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Saudia SV-410</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D3" s="2" t="n">
         <v>13924</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>11971</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>1953</v>
-      </c>
-      <c r="G2" s="2" t="n">
+      <c r="E3" s="2" t="n">
+        <v>13017</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>907</v>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I2" s="2" t="n">
+      <c r="H3" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>03-FEB-26</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>SM-451</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-655</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>9173</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>7346</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>1827</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>04-FEB-26</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>SM-473</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-655</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>10219</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>8052</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>2167</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>10-FEB-26</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>SM-471</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-774</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>6036</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>23035</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>-16999</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>10-FEB-26</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>SM-471</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-332</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>10396</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>23035</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>-12639</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>10-FEB-26</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>SM-471</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-410</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>17402</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>23035</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>-5633</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>14-FEB-26</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>SM-979</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-774</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>12752</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>23035</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>-10283</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>14-FEB-26</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>SM-979</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-410</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>16054</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>23035</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>-6981</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>14-FEB-26</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>SM-979</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-332</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>16596</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>23035</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>-6439</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>14-FEB-26</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>SM-979</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-325</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>17171</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>23035</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>-5864</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>14-FEB-26</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>SM-979</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-363</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>17171</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>23035</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>-5864</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>15-FEB-26</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>SM-957</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-361</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>13689</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>23035</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>-9346</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>15-FEB-26</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>SM-957</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-410</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>21183</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>23035</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>-1852</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>16-FEB-26</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>SM-973</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-410</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>21183</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>23035</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>-1852</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>17-FEB-26</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>SM-973</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-774</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>6036</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>23035</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>-16999</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="J17" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>17-FEB-26</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>SM-973</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-410</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>16596</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>23035</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>-6439</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J18" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>17-FEB-26</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>SM-973</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-332</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>21183</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>23035</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>-1852</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>23-FEB-26</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>SM-2477</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-410</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>11820</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>31667</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>-19847</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>23-FEB-26</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>SM-2477</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-323</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>23223</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>31667</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>-8444</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>
